--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1020550.426785524</v>
+        <v>1016410.720371566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10143072.1018913</v>
+        <v>10140122.20493921</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68.39954746339721</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -674,10 +674,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>40.91888562453799</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -792,16 +792,16 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102173253</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>113.5468392857306</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11.96152956451216</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>78.03010452925137</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>148.5025419521359</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>206.4282660332421</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -975,7 +975,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
@@ -993,7 +993,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
         <v>133.5813703291298</v>
@@ -1032,7 +1032,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
-        <v>107.7081133454539</v>
+        <v>87.63261027224982</v>
       </c>
       <c r="W6" t="n">
         <v>227.816073408046</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>108.1045920014102</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13.97719265966581</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>325.5410599680466</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>197.551022767877</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>153.121093124006</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>247.2222569148907</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>115.6738908148322</v>
+        <v>44.97366081453464</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>57.56740021144741</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
-        <v>56.23233002700154</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1613,10 +1613,10 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>197.8116665897034</v>
+        <v>260.9947351689207</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1658,13 +1658,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
         <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>56.23233002700143</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>70.03904814941278</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665132</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.595443021181</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838905</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828918</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043175</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459991</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643963</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931874</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908601</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147815</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805019</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922212</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367804</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920536</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.403061694776</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708418</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369165</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
@@ -3983,7 +3983,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.4237934035723</v>
+        <v>104.8118403591029</v>
       </c>
       <c r="C2" t="n">
-        <v>982.4237934035723</v>
+        <v>104.8118403591029</v>
       </c>
       <c r="D2" t="n">
-        <v>596.98266462024</v>
+        <v>104.8118403591029</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8922126370105</v>
+        <v>104.8118403591029</v>
       </c>
       <c r="F2" t="n">
-        <v>515.0381782073923</v>
+        <v>91.95780592948473</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>82.83545445789196</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>914.0882813934884</v>
       </c>
       <c r="N2" t="n">
-        <v>2106.518148697129</v>
+        <v>1427.690960003176</v>
       </c>
       <c r="O2" t="n">
-        <v>2106.518148697129</v>
+        <v>1542.129285544451</v>
       </c>
       <c r="P2" t="n">
-        <v>2106.518148697129</v>
+        <v>1890.316777675973</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737751</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="T2" t="n">
-        <v>1951.282367297168</v>
+        <v>1870.655869043494</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.529637731766</v>
+        <v>1614.903139478093</v>
       </c>
       <c r="V2" t="n">
-        <v>1353.422828435285</v>
+        <v>1272.796330181611</v>
       </c>
       <c r="W2" t="n">
-        <v>982.4237934035723</v>
+        <v>901.7972951498987</v>
       </c>
       <c r="X2" t="n">
-        <v>982.4237934035723</v>
+        <v>901.7972951498987</v>
       </c>
       <c r="Y2" t="n">
-        <v>982.4237934035723</v>
+        <v>505.3065860704998</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>50.78821608954394</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475502</v>
+        <v>50.78821608954394</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>534.3543019878572</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303162</v>
+        <v>1047.956980597545</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430372</v>
+        <v>1561.559659207233</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021354</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1516.79080418483</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1286.673558318117</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>511.9332583177733</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="C4" t="n">
-        <v>511.9332583177733</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="D4" t="n">
-        <v>356.3001452202881</v>
+        <v>708.4988687971215</v>
       </c>
       <c r="E4" t="n">
-        <v>356.3001452202881</v>
+        <v>552.940056656324</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>395.6141218692969</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>227.3600679687425</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475502</v>
+        <v>71.88151693023649</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>697.1412770090747</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>697.1412770090747</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="W4" t="n">
-        <v>697.1412770090747</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="X4" t="n">
-        <v>697.1412770090747</v>
+        <v>864.1319818946067</v>
       </c>
       <c r="Y4" t="n">
-        <v>697.1412770090747</v>
+        <v>864.1319818946067</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>215.4746129243861</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596597</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596597</v>
+        <v>466.0631575410049</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596597</v>
+        <v>63.47963265754939</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663478</v>
+        <v>50.62559822793121</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>895.7983071407457</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M5" t="n">
-        <v>1434.057092150839</v>
+        <v>1121.520058314905</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845423</v>
+        <v>1635.122736924593</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023273</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964324</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964324</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398922</v>
+        <v>1813.66882166186</v>
       </c>
       <c r="V5" t="n">
-        <v>1372.416962102441</v>
+        <v>1471.562012365378</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.417927070728</v>
+        <v>1263.048612331801</v>
       </c>
       <c r="X5" t="n">
-        <v>611.965322003785</v>
+        <v>1263.048612331801</v>
       </c>
       <c r="Y5" t="n">
-        <v>215.4746129243861</v>
+        <v>866.5579032524017</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>793.4743885466976</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="C6" t="n">
-        <v>642.8201581067898</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>512.7311907282701</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>376.2846998391578</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>251.8528937222897</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>131.7930757941541</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127957</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.435512522889</v>
+        <v>1327.194567652343</v>
       </c>
       <c r="N6" t="n">
-        <v>1658.26268714677</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O6" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737751</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.85229263762</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836528</v>
+        <v>1739.330805813763</v>
       </c>
       <c r="U6" t="n">
-        <v>1652.80533751517</v>
+        <v>1529.267662492405</v>
       </c>
       <c r="V6" t="n">
-        <v>1544.009263428853</v>
+        <v>1440.749874338617</v>
       </c>
       <c r="W6" t="n">
-        <v>1313.89201756214</v>
+        <v>1210.632628471904</v>
       </c>
       <c r="X6" t="n">
-        <v>1124.584939912152</v>
+        <v>1021.325550821916</v>
       </c>
       <c r="Y6" t="n">
-        <v>945.2707229876589</v>
+        <v>842.011333897423</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.7461243591254</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="C7" t="n">
-        <v>835.7461243591254</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="D7" t="n">
-        <v>680.1130112616401</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208426</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338155</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>835.7461243591254</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>835.7461243591254</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>835.7461243591254</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="V7" t="n">
-        <v>835.7461243591254</v>
+        <v>188.7160485431654</v>
       </c>
       <c r="W7" t="n">
-        <v>835.7461243591254</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="X7" t="n">
-        <v>835.7461243591254</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="Y7" t="n">
-        <v>835.7461243591254</v>
+        <v>174.5976721192606</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1173.289328743002</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>1173.289328743002</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>787.8481999596693</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>385.2646750762138</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>56.43532157313638</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2142.147902636597</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>1886.395173071196</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V8" t="n">
-        <v>1544.288363774714</v>
+        <v>1506.295450060236</v>
       </c>
       <c r="W8" t="n">
-        <v>1173.289328743002</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="X8" t="n">
-        <v>1173.289328743002</v>
+        <v>1135.296415028523</v>
       </c>
       <c r="Y8" t="n">
-        <v>1173.289328743002</v>
+        <v>935.7499273842031</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>540.4399127684381</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="C10" t="n">
-        <v>370.2347948344274</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="D10" t="n">
-        <v>215.5670240020981</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="E10" t="n">
-        <v>215.5670240020981</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="F10" t="n">
-        <v>215.5670240020981</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>460.5051170675463</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="Y10" t="n">
-        <v>725.6479314597394</v>
+        <v>210.7856656383638</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.879336723576</v>
+        <v>1434.218555009981</v>
       </c>
       <c r="C11" t="n">
-        <v>1448.5001103727</v>
+        <v>1112.839328659105</v>
       </c>
       <c r="D11" t="n">
-        <v>1331.657796418324</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="E11" t="n">
-        <v>1000.870546681062</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>655.7723833572339</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K11" t="n">
         <v>565.7512566404055</v>
@@ -5051,40 +5051,40 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O11" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.239105293022</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998633</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579426</v>
       </c>
       <c r="V11" t="n">
-        <v>2740.928571142733</v>
+        <v>2405.267789429138</v>
       </c>
       <c r="W11" t="n">
-        <v>2740.928571142733</v>
+        <v>2405.267789429138</v>
       </c>
       <c r="X11" t="n">
-        <v>2423.272241221984</v>
+        <v>2087.611459508389</v>
       </c>
       <c r="Y11" t="n">
-        <v>2098.577807288779</v>
+        <v>1762.917025575184</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N12" t="n">
         <v>1740.468202408463</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>229.6382415477191</v>
+        <v>216.7257955609481</v>
       </c>
       <c r="C13" t="n">
-        <v>229.6382415477191</v>
+        <v>216.7257955609481</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8014035964277</v>
+        <v>216.7257955609481</v>
       </c>
       <c r="E13" t="n">
-        <v>145.8014035964277</v>
+        <v>216.7257955609481</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J13" t="n">
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1439.9323084539</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1276.009531768328</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>1062.367015156423</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>868.1839451234408</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>656.6498182008122</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>494.3657711299893</v>
+        <v>368.0415815981108</v>
       </c>
       <c r="Y13" t="n">
-        <v>343.0499850928265</v>
+        <v>216.7257955609481</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1835.7043909011</v>
+        <v>1554.427508970421</v>
       </c>
       <c r="C14" t="n">
-        <v>1514.325164550224</v>
+        <v>1233.048282619545</v>
       </c>
       <c r="D14" t="n">
-        <v>1200.680310913086</v>
+        <v>919.4034289824067</v>
       </c>
       <c r="E14" t="n">
-        <v>1000.870546681062</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="F14" t="n">
-        <v>655.7723833572339</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2770.29560349218</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2499.985069341893</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.753625320258</v>
+        <v>2200.782309456374</v>
       </c>
       <c r="X14" t="n">
-        <v>2489.097295399508</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>2164.402861466303</v>
+        <v>1883.125979535624</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.4385749083266</v>
+        <v>571.4129340497494</v>
       </c>
       <c r="C16" t="n">
-        <v>286.4385749083266</v>
+        <v>473.0040912619325</v>
       </c>
       <c r="D16" t="n">
-        <v>202.6017369570352</v>
+        <v>389.1672533106411</v>
       </c>
       <c r="E16" t="n">
-        <v>202.6017369570352</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>1209.958637625471</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>1209.958637625471</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>998.4245107028427</v>
       </c>
       <c r="X16" t="n">
-        <v>551.166104490597</v>
+        <v>836.1404636320196</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534342</v>
+        <v>684.8246775948569</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>865.4243596646552</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
@@ -5735,28 +5735,28 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292423</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>346.9752758473783</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>830.5413617456916</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,10 +5914,10 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N22" t="n">
         <v>806.6193906797589</v>
@@ -5926,34 +5926,34 @@
         <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6075,16 +6075,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343054</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6224,22 +6224,22 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1802.420903106096</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473131</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647881</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
         <v>3334.531518508977</v>
@@ -6312,16 +6312,16 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.077005345479</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
         <v>1293.722338718128</v>
@@ -6458,55 +6458,55 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388004</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958355</v>
+        <v>763.0997113429867</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1256.420003061515</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1895.472264835669</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824606</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,10 +6534,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
         <v>186.4798411672776</v>
@@ -6549,10 +6549,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1617.556722754498</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
-        <v>1617.556722754498</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6616,7 +6616,7 @@
         <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770516</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2658.656341426377</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170065</v>
+        <v>3118.495954132882</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038084</v>
+        <v>3303.34151427383</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761243</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227155</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1613.73941204771</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996514</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918676</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123137</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067548</v>
+        <v>231.2685546898324</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805546</v>
+        <v>501.1958531658787</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458887</v>
+        <v>687.4874315041427</v>
       </c>
       <c r="N34" t="n">
-        <v>989.564301104168</v>
+        <v>870.6770655353519</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872946</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
         <v>1458.313011372373</v>
@@ -7099,16 +7099,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102856</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099313</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404073</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358936</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403517</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J39" t="n">
         <v>175.2341099238429</v>
@@ -7260,10 +7260,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1606.310991511064</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797591</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296519</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U40" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W40" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856983996</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7448,10 +7448,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7561,22 +7561,22 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N43" t="n">
         <v>683.142663665514</v>
@@ -7628,22 +7628,22 @@
         <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,7 +7664,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
         <v>2979.29570107106</v>
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7734,10 +7734,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
         <v>161.4017547291066</v>
@@ -7810,46 +7810,46 @@
         <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184691</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567331</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879423</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>265.1581056476064</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>213.453063105889</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,7 +8055,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>91.82321423556112</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8064,16 +8064,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>274.5850301543796</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,10 +8222,10 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321651</v>
+        <v>233.6284767530279</v>
       </c>
       <c r="N5" t="n">
-        <v>452.8420031504947</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>465.388239943996</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0460266156628</v>
+        <v>604.162697308397</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
         <v>505.666843611017</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>194.0418287534719</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8699,7 +8699,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826972</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>688.0608343844987</v>
       </c>
       <c r="N12" t="n">
-        <v>658.1108392979579</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>92.68755888888889</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9179,7 +9179,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
         <v>331.2113854294513</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>447.5171231095475</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9410,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826963</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,13 +9480,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>263.0728605086217</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,7 +9960,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
         <v>85.37211285416666</v>
@@ -9969,10 +9969,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>347.309009847301</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,13 +10197,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
-        <v>228.1998931286863</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10434,13 +10434,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069888</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10662,19 +10662,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>684.2495388215582</v>
+        <v>424.3297954396435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>228.1998931286865</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,16 +11148,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>579.1898666384017</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11382,13 +11382,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>194.8345142859348</v>
+        <v>265.5347442862324</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
         <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>27.10696283297744</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
         <v>60.68516871456096</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>73.47728055754266</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>129.6677106501855</v>
+        <v>66.48464207096831</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>28.44203301742342</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>141.4670432963734</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>883876.5270540817</v>
+        <v>882372.6580196809</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>883876.5270540817</v>
+        <v>882372.6580196809</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>797572.972713026</v>
+        <v>797572.9727130266</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>797572.972713026</v>
+        <v>797572.9727130261</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>894049.4841902248</v>
+        <v>894049.4841902247</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894049.4841902249</v>
+        <v>894049.4841902248</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894049.4841902248</v>
+        <v>894049.4841902246</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="C2" t="n">
+        <v>432797.2274240564</v>
+      </c>
+      <c r="D2" t="n">
         <v>432797.2274240563</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>382461.6562185612</v>
+      </c>
+      <c r="F2" t="n">
+        <v>382461.6562185611</v>
+      </c>
+      <c r="G2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="H2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="I2" t="n">
+        <v>432797.2274240564</v>
+      </c>
+      <c r="J2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="K2" t="n">
+        <v>432797.2274240565</v>
+      </c>
+      <c r="L2" t="n">
+        <v>432797.2274240562</v>
+      </c>
+      <c r="M2" t="n">
+        <v>432797.2274240564</v>
+      </c>
+      <c r="N2" t="n">
         <v>432797.2274240563</v>
-      </c>
-      <c r="D2" t="n">
-        <v>432797.2274240564</v>
-      </c>
-      <c r="E2" t="n">
-        <v>382461.656218561</v>
-      </c>
-      <c r="F2" t="n">
-        <v>382461.656218561</v>
-      </c>
-      <c r="G2" t="n">
-        <v>432797.2274240564</v>
-      </c>
-      <c r="H2" t="n">
-        <v>432797.2274240563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>432797.2274240563</v>
-      </c>
-      <c r="J2" t="n">
-        <v>432797.2274240565</v>
-      </c>
-      <c r="K2" t="n">
-        <v>432797.2274240563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>432797.227424056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>432797.2274240563</v>
-      </c>
-      <c r="N2" t="n">
-        <v>432797.2274240562</v>
       </c>
       <c r="O2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="P2" t="n">
-        <v>432797.2274240563</v>
+        <v>432797.2274240561</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740447</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728541</v>
+        <v>62456.24177539679</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.5244708113</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="C4" t="n">
-        <v>221554.611048951</v>
+        <v>226762.9162907736</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
@@ -26445,7 +26445,7 @@
         <v>187115.3694404867</v>
       </c>
       <c r="L4" t="n">
-        <v>186859.7955400033</v>
+        <v>186726.4009309486</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761035</v>
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984054</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37646.63305676464</v>
+        <v>-32994.41343558961</v>
       </c>
       <c r="C6" t="n">
-        <v>144558.3152350915</v>
+        <v>140864.2435984656</v>
       </c>
       <c r="D6" t="n">
-        <v>136813.7345314712</v>
+        <v>129077.4453080792</v>
       </c>
       <c r="E6" t="n">
-        <v>78547.11456015462</v>
+        <v>78337.38301346508</v>
       </c>
       <c r="F6" t="n">
-        <v>190669.6760341991</v>
+        <v>190459.9444875098</v>
       </c>
       <c r="G6" t="n">
-        <v>140837.2555957512</v>
+        <v>140837.2555957511</v>
       </c>
       <c r="H6" t="n">
-        <v>188262.5811324331</v>
+        <v>188262.581132433</v>
       </c>
       <c r="I6" t="n">
         <v>188262.5811324331</v>
       </c>
       <c r="J6" t="n">
-        <v>-24779.33646485233</v>
+        <v>-18263.05131027936</v>
       </c>
       <c r="K6" t="n">
-        <v>182022.8127296501</v>
+        <v>182022.8127296504</v>
       </c>
       <c r="L6" t="n">
-        <v>126840.2237950287</v>
+        <v>122791.3865845566</v>
       </c>
       <c r="M6" t="n">
-        <v>146061.7516728102</v>
+        <v>145010.0566616219</v>
       </c>
       <c r="N6" t="n">
+        <v>188262.5811324331</v>
+      </c>
+      <c r="O6" t="n">
+        <v>160494.8870896618</v>
+      </c>
+      <c r="P6" t="n">
         <v>188262.5811324329</v>
-      </c>
-      <c r="O6" t="n">
-        <v>160494.887089662</v>
-      </c>
-      <c r="P6" t="n">
-        <v>188262.5811324331</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,13 +26713,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014445</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
+        <v>776.4890963014444</v>
+      </c>
+      <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="O4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660676</v>
+        <v>78.07030221924599</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551362</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346408</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321495</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.3622249971644</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042801</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321495</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>330.1581421712237</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>279.9233343046362</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27512,16 +27512,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863135</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>73.86716758775782</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>270.6228742760059</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>185.2894471981326</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>240.7412045299628</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>160.8607786481533</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>112.6064882671898</v>
+        <v>132.6819913403938</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,19 +27822,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>92.68333097786591</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>266.5199053884683</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27856,22 +27856,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>87.18443411727537</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>194.9747792207279</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9556888425044008</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,16 +28023,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>16.09729481249329</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,37 +28719,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
         <v>30.07448747215907</v>
@@ -28986,10 +28986,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082788</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29226,22 +29226,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.636002634529518</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,19 +29296,19 @@
         <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
         <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>30.27223765901169</v>
@@ -29533,25 +29533,25 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901232</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,46 +29776,46 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>81.10808140893118</v>
       </c>
       <c r="P32" t="n">
-        <v>48.65992738833467</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045584</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.8683420224712</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
-        <v>5.636002634529149</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30220,34 +30220,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,10 +30414,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634527671</v>
+        <v>5.636002634530172</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>35.7104901066877</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>35.71049010668708</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>115.59426822351</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>68.95436468749685</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9.37875690222778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,16 +34784,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>189.2129173002129</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,10 +34942,10 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344378</v>
+        <v>83.90342515530061</v>
       </c>
       <c r="N5" t="n">
-        <v>303.7235118127106</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>373.0011178946841</v>
       </c>
       <c r="N6" t="n">
-        <v>484.6739137614961</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
         <v>362.6084404317796</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>44.47799132937547</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.7017183923758</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35419,7 +35419,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449131</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>595.6737123351868</v>
       </c>
       <c r="N12" t="n">
-        <v>572.7387264437913</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35899,7 +35899,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
         <v>186.7126870110591</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>362.1450102553808</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449122</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,13 +36200,13 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>173.4759251752883</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>193.8093140873215</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>474.756683004798</v>
@@ -36680,7 +36680,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36689,10 +36689,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>260.2256450279863</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,25 +36829,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851011</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751656</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36917,13 +36917,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
-        <v>135.5123342397974</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37072,25 +37072,25 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682817</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449819</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>525.5925267547175</v>
       </c>
       <c r="P32" t="n">
-        <v>400.3644648949224</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272658</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>272.6538368444912</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102232</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>598.8774259673916</v>
+        <v>338.9576825854768</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094879</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317814</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>135.5123342397976</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,10 +37710,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716065</v>
+        <v>169.984252171609</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,16 +37868,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>486.5023077495127</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,7 +37947,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094876</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38102,13 +38102,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>100.2854818434253</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>201.4959849287077</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>200.0587396437659</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
